--- a/eclipse-project/src/classes/LanguageUtils_LanguageTranslationsGenerator.xlsx
+++ b/eclipse-project/src/classes/LanguageUtils_LanguageTranslationsGenerator.xlsx
@@ -4,19 +4,26 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="20955" windowHeight="10125"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="20955" windowHeight="10125" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$1:$B$24</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="526">
   <si>
     <t>Locale Code</t>
   </si>
@@ -1531,6 +1538,69 @@
   </si>
   <si>
     <t>中文（繁體）</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>Swedish</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>Chinese (Traditional)</t>
+  </si>
+  <si>
+    <t>Dutch</t>
+  </si>
+  <si>
+    <t>Danish</t>
+  </si>
+  <si>
+    <t>Finnish</t>
+  </si>
+  <si>
+    <t>Czech</t>
+  </si>
+  <si>
+    <t>English (United States)</t>
+  </si>
+  <si>
+    <t>Hungarian</t>
+  </si>
+  <si>
+    <t>Indonesian</t>
+  </si>
+  <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>Chinese_Simplified</t>
+  </si>
+  <si>
+    <t>Chinese_Traditional</t>
+  </si>
+  <si>
+    <t>Portuguese_Brazilian</t>
+  </si>
+  <si>
+    <t>English_United_States</t>
   </si>
 </sst>
 </file>
@@ -1864,8 +1934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A2:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6245,4 +6315,1449 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" hidden="1">
+      <c r="A2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" t="str">
+        <f>VLOOKUP(A2,$I$2:$I$17,1,FALSE)</f>
+        <v>Chinese (Simplified)</v>
+      </c>
+      <c r="D2" t="str">
+        <f>TRIM(A2)</f>
+        <v>Chinese (Simplified)</v>
+      </c>
+      <c r="I2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" hidden="1">
+      <c r="A3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B24" si="0">VLOOKUP(A3,$I$2:$I$17,1,FALSE)</f>
+        <v>Chinese (Traditional)</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D24" si="1">TRIM(A3)</f>
+        <v>Chinese (Traditional)</v>
+      </c>
+      <c r="I3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>517</v>
+      </c>
+      <c r="B4" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>Czech</v>
+      </c>
+      <c r="I4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" hidden="1">
+      <c r="A5" t="s">
+        <v>515</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>Danish</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>Danish</v>
+      </c>
+      <c r="I5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" hidden="1">
+      <c r="A6" t="s">
+        <v>514</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>Dutch</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>Dutch</v>
+      </c>
+      <c r="I6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>518</v>
+      </c>
+      <c r="B7" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>English (United States)</v>
+      </c>
+      <c r="I7" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1">
+      <c r="A8" t="s">
+        <v>516</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>Finnish</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>Finnish</v>
+      </c>
+      <c r="I8" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1">
+      <c r="A9" t="s">
+        <v>508</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>French</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>French</v>
+      </c>
+      <c r="I9" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" hidden="1">
+      <c r="A10" t="s">
+        <v>506</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>German</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>German</v>
+      </c>
+      <c r="I10" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>519</v>
+      </c>
+      <c r="B11" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>Hungarian</v>
+      </c>
+      <c r="I11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>520</v>
+      </c>
+      <c r="B12" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>Indonesian</v>
+      </c>
+      <c r="I12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1">
+      <c r="A13" t="s">
+        <v>509</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>Italian</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>Italian</v>
+      </c>
+      <c r="I13" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" hidden="1">
+      <c r="A14" t="s">
+        <v>510</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>Japanese</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>Japanese</v>
+      </c>
+      <c r="I14" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" hidden="1">
+      <c r="A15" t="s">
+        <v>512</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>Korean</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>Korean</v>
+      </c>
+      <c r="I15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>Mexican Spanish</v>
+      </c>
+      <c r="I16" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>Polish</v>
+      </c>
+      <c r="I17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" hidden="1">
+      <c r="A18" t="s">
+        <v>367</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>Portuguese (Brazilian)</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>Portuguese (Brazilian)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>239</v>
+      </c>
+      <c r="B19" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>Romanian</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" hidden="1">
+      <c r="A20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>Russian</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>Russian</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" hidden="1">
+      <c r="A21" t="s">
+        <v>507</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>Spanish</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>Spanish</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" hidden="1">
+      <c r="A22" t="s">
+        <v>511</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>Swedish</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>Swedish</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" hidden="1">
+      <c r="A23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>Thai</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>Thai</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>242</v>
+      </c>
+      <c r="B24" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>Turkish</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B24">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="#N/A"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A1:A23">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="str">
+        <f>SUBSTITUTE(A1,"(","")</f>
+        <v>Chinese Simplified)</v>
+      </c>
+      <c r="C1" t="str">
+        <f>SUBSTITUTE(B1,")","")</f>
+        <v>Chinese Simplified</v>
+      </c>
+      <c r="D1" t="str">
+        <f>SUBSTITUTE(C1," ","_")</f>
+        <v>Chinese_Simplified</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B15" si="0">SUBSTITUTE(A2,"(","")</f>
+        <v>Chinese Traditional)</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C15" si="1">SUBSTITUTE(B2,")","")</f>
+        <v>Chinese Traditional</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D15" si="2">SUBSTITUTE(C2," ","_")</f>
+        <v>Chinese_Traditional</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>Danish</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="1"/>
+        <v>Danish</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="2"/>
+        <v>Danish</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>Dutch</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v>Dutch</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="2"/>
+        <v>Dutch</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>516</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>Finnish</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v>Finnish</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="2"/>
+        <v>Finnish</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>508</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>French</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>French</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="2"/>
+        <v>French</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>506</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>German</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>German</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="2"/>
+        <v>German</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>509</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>Italian</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>Italian</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="2"/>
+        <v>Italian</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>510</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>Japanese</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>Japanese</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="2"/>
+        <v>Japanese</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>512</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>Korean</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>Korean</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="2"/>
+        <v>Korean</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>367</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>Portuguese Brazilian)</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>Portuguese Brazilian</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="2"/>
+        <v>Portuguese_Brazilian</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>Russian</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>Russian</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="2"/>
+        <v>Russian</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>507</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>Spanish</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>Spanish</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="2"/>
+        <v>Spanish</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>511</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>Swedish</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>Swedish</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="2"/>
+        <v>Swedish</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>Thai</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>Thai</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="2"/>
+        <v>Thai</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="str">
+        <f>"&lt;alerts&gt;&lt;fullName&gt;Send_Email_"&amp;B1&amp;"&lt;/fullName&gt;&lt;description&gt;Send Email | "&amp;A1&amp;"&lt;/description&gt;"</f>
+        <v>&lt;alerts&gt;&lt;fullName&gt;Send_Email_Chinese_Simplified&lt;/fullName&gt;&lt;description&gt;Send Email | Chinese (Simplified)&lt;/description&gt;</v>
+      </c>
+      <c r="E1" t="str">
+        <f>"&lt;protected&gt;false&lt;/protected&gt;&lt;recipients&gt;&lt;field&gt;Email_Address__c&lt;/field&gt;&lt;type&gt;email&lt;/type&gt;&lt;/recipients&gt;"</f>
+        <v>&lt;protected&gt;false&lt;/protected&gt;&lt;recipients&gt;&lt;field&gt;Email_Address__c&lt;/field&gt;&lt;type&gt;email&lt;/type&gt;&lt;/recipients&gt;</v>
+      </c>
+      <c r="F1" t="str">
+        <f>"&lt;template&gt;Send_Email/Send_Email_"&amp;B1&amp;"&lt;/template&gt;&lt;/alerts&gt;"</f>
+        <v>&lt;template&gt;Send_Email/Send_Email_Chinese_Simplified&lt;/template&gt;&lt;/alerts&gt;</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"&lt;rules&gt;&lt;fullName&gt;Send Email "&amp;A1&amp;"&lt;/fullName&gt;&lt;actions&gt;&lt;name&gt;Send_Email_"&amp;B1&amp;"&lt;/name&gt;"</f>
+        <v>&lt;rules&gt;&lt;fullName&gt;Send Email Chinese (Simplified)&lt;/fullName&gt;&lt;actions&gt;&lt;name&gt;Send_Email_Chinese_Simplified&lt;/name&gt;</v>
+      </c>
+      <c r="H1" t="str">
+        <f>"&lt;type&gt;Alert&lt;/type&gt;&lt;/actions&gt;&lt;active&gt;true&lt;/active&gt;&lt;criteriaItems&gt;&lt;field&gt;Email__c.Language_Code__c&lt;/field&gt;&lt;operation&gt;equals&lt;/operation&gt;"</f>
+        <v>&lt;type&gt;Alert&lt;/type&gt;&lt;/actions&gt;&lt;active&gt;true&lt;/active&gt;&lt;criteriaItems&gt;&lt;field&gt;Email__c.Language_Code__c&lt;/field&gt;&lt;operation&gt;equals&lt;/operation&gt;</v>
+      </c>
+      <c r="I1" t="str">
+        <f>"&lt;value&gt;"&amp;C1&amp;"&lt;/value&gt;&lt;/criteriaItems&gt;&lt;triggerType&gt;onCreateOnly&lt;/triggerType&gt;&lt;/rules&gt;"</f>
+        <v>&lt;value&gt;zh_CN&lt;/value&gt;&lt;/criteriaItems&gt;&lt;triggerType&gt;onCreateOnly&lt;/triggerType&gt;&lt;/rules&gt;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D16" si="0">"&lt;alerts&gt;&lt;fullName&gt;Send_Email_"&amp;B2&amp;"&lt;/fullName&gt;&lt;description&gt;Send Email | "&amp;A2&amp;"&lt;/description&gt;"</f>
+        <v>&lt;alerts&gt;&lt;fullName&gt;Send_Email_Chinese_Traditional&lt;/fullName&gt;&lt;description&gt;Send Email | Chinese (Traditional)&lt;/description&gt;</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E16" si="1">"&lt;protected&gt;false&lt;/protected&gt;&lt;recipients&gt;&lt;field&gt;Email_Address__c&lt;/field&gt;&lt;type&gt;email&lt;/type&gt;&lt;/recipients&gt;"</f>
+        <v>&lt;protected&gt;false&lt;/protected&gt;&lt;recipients&gt;&lt;field&gt;Email_Address__c&lt;/field&gt;&lt;type&gt;email&lt;/type&gt;&lt;/recipients&gt;</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F16" si="2">"&lt;template&gt;Send_Email/Send_Email_"&amp;B2&amp;"&lt;/template&gt;&lt;/alerts&gt;"</f>
+        <v>&lt;template&gt;Send_Email/Send_Email_Chinese_Traditional&lt;/template&gt;&lt;/alerts&gt;</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G16" si="3">"&lt;rules&gt;&lt;fullName&gt;Send Email "&amp;A2&amp;"&lt;/fullName&gt;&lt;actions&gt;&lt;name&gt;Send_Email_"&amp;B2&amp;"&lt;/name&gt;"</f>
+        <v>&lt;rules&gt;&lt;fullName&gt;Send Email Chinese (Traditional)&lt;/fullName&gt;&lt;actions&gt;&lt;name&gt;Send_Email_Chinese_Traditional&lt;/name&gt;</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H16" si="4">"&lt;type&gt;Alert&lt;/type&gt;&lt;/actions&gt;&lt;active&gt;true&lt;/active&gt;&lt;criteriaItems&gt;&lt;field&gt;Email__c.Language_Code__c&lt;/field&gt;&lt;operation&gt;equals&lt;/operation&gt;"</f>
+        <v>&lt;type&gt;Alert&lt;/type&gt;&lt;/actions&gt;&lt;active&gt;true&lt;/active&gt;&lt;criteriaItems&gt;&lt;field&gt;Email__c.Language_Code__c&lt;/field&gt;&lt;operation&gt;equals&lt;/operation&gt;</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" ref="I2:I16" si="5">"&lt;value&gt;"&amp;C2&amp;"&lt;/value&gt;&lt;/criteriaItems&gt;&lt;triggerType&gt;onCreateOnly&lt;/triggerType&gt;&lt;/rules&gt;"</f>
+        <v>&lt;value&gt;zh_TW&lt;/value&gt;&lt;/criteriaItems&gt;&lt;triggerType&gt;onCreateOnly&lt;/triggerType&gt;&lt;/rules&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;alerts&gt;&lt;fullName&gt;Send_Email_Danish&lt;/fullName&gt;&lt;description&gt;Send Email | Danish&lt;/description&gt;</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;protected&gt;false&lt;/protected&gt;&lt;recipients&gt;&lt;field&gt;Email_Address__c&lt;/field&gt;&lt;type&gt;email&lt;/type&gt;&lt;/recipients&gt;</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;template&gt;Send_Email/Send_Email_Danish&lt;/template&gt;&lt;/alerts&gt;</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;rules&gt;&lt;fullName&gt;Send Email Danish&lt;/fullName&gt;&lt;actions&gt;&lt;name&gt;Send_Email_Danish&lt;/name&gt;</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;type&gt;Alert&lt;/type&gt;&lt;/actions&gt;&lt;active&gt;true&lt;/active&gt;&lt;criteriaItems&gt;&lt;field&gt;Email__c.Language_Code__c&lt;/field&gt;&lt;operation&gt;equals&lt;/operation&gt;</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;value&gt;da&lt;/value&gt;&lt;/criteriaItems&gt;&lt;triggerType&gt;onCreateOnly&lt;/triggerType&gt;&lt;/rules&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;alerts&gt;&lt;fullName&gt;Send_Email_Dutch&lt;/fullName&gt;&lt;description&gt;Send Email | Dutch&lt;/description&gt;</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;protected&gt;false&lt;/protected&gt;&lt;recipients&gt;&lt;field&gt;Email_Address__c&lt;/field&gt;&lt;type&gt;email&lt;/type&gt;&lt;/recipients&gt;</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;template&gt;Send_Email/Send_Email_Dutch&lt;/template&gt;&lt;/alerts&gt;</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;rules&gt;&lt;fullName&gt;Send Email Dutch&lt;/fullName&gt;&lt;actions&gt;&lt;name&gt;Send_Email_Dutch&lt;/name&gt;</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;type&gt;Alert&lt;/type&gt;&lt;/actions&gt;&lt;active&gt;true&lt;/active&gt;&lt;criteriaItems&gt;&lt;field&gt;Email__c.Language_Code__c&lt;/field&gt;&lt;operation&gt;equals&lt;/operation&gt;</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;value&gt;nl_NL&lt;/value&gt;&lt;/criteriaItems&gt;&lt;triggerType&gt;onCreateOnly&lt;/triggerType&gt;&lt;/rules&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>516</v>
+      </c>
+      <c r="B5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;alerts&gt;&lt;fullName&gt;Send_Email_Finnish&lt;/fullName&gt;&lt;description&gt;Send Email | Finnish&lt;/description&gt;</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;protected&gt;false&lt;/protected&gt;&lt;recipients&gt;&lt;field&gt;Email_Address__c&lt;/field&gt;&lt;type&gt;email&lt;/type&gt;&lt;/recipients&gt;</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;template&gt;Send_Email/Send_Email_Finnish&lt;/template&gt;&lt;/alerts&gt;</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;rules&gt;&lt;fullName&gt;Send Email Finnish&lt;/fullName&gt;&lt;actions&gt;&lt;name&gt;Send_Email_Finnish&lt;/name&gt;</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;type&gt;Alert&lt;/type&gt;&lt;/actions&gt;&lt;active&gt;true&lt;/active&gt;&lt;criteriaItems&gt;&lt;field&gt;Email__c.Language_Code__c&lt;/field&gt;&lt;operation&gt;equals&lt;/operation&gt;</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;value&gt;fi&lt;/value&gt;&lt;/criteriaItems&gt;&lt;triggerType&gt;onCreateOnly&lt;/triggerType&gt;&lt;/rules&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>508</v>
+      </c>
+      <c r="B6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;alerts&gt;&lt;fullName&gt;Send_Email_French&lt;/fullName&gt;&lt;description&gt;Send Email | French&lt;/description&gt;</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;protected&gt;false&lt;/protected&gt;&lt;recipients&gt;&lt;field&gt;Email_Address__c&lt;/field&gt;&lt;type&gt;email&lt;/type&gt;&lt;/recipients&gt;</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;template&gt;Send_Email/Send_Email_French&lt;/template&gt;&lt;/alerts&gt;</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;rules&gt;&lt;fullName&gt;Send Email French&lt;/fullName&gt;&lt;actions&gt;&lt;name&gt;Send_Email_French&lt;/name&gt;</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;type&gt;Alert&lt;/type&gt;&lt;/actions&gt;&lt;active&gt;true&lt;/active&gt;&lt;criteriaItems&gt;&lt;field&gt;Email__c.Language_Code__c&lt;/field&gt;&lt;operation&gt;equals&lt;/operation&gt;</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;value&gt;fr&lt;/value&gt;&lt;/criteriaItems&gt;&lt;triggerType&gt;onCreateOnly&lt;/triggerType&gt;&lt;/rules&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>506</v>
+      </c>
+      <c r="B7" t="s">
+        <v>506</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;alerts&gt;&lt;fullName&gt;Send_Email_German&lt;/fullName&gt;&lt;description&gt;Send Email | German&lt;/description&gt;</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;protected&gt;false&lt;/protected&gt;&lt;recipients&gt;&lt;field&gt;Email_Address__c&lt;/field&gt;&lt;type&gt;email&lt;/type&gt;&lt;/recipients&gt;</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;template&gt;Send_Email/Send_Email_German&lt;/template&gt;&lt;/alerts&gt;</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;rules&gt;&lt;fullName&gt;Send Email German&lt;/fullName&gt;&lt;actions&gt;&lt;name&gt;Send_Email_German&lt;/name&gt;</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;type&gt;Alert&lt;/type&gt;&lt;/actions&gt;&lt;active&gt;true&lt;/active&gt;&lt;criteriaItems&gt;&lt;field&gt;Email__c.Language_Code__c&lt;/field&gt;&lt;operation&gt;equals&lt;/operation&gt;</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;value&gt;de&lt;/value&gt;&lt;/criteriaItems&gt;&lt;triggerType&gt;onCreateOnly&lt;/triggerType&gt;&lt;/rules&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>509</v>
+      </c>
+      <c r="B8" t="s">
+        <v>509</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;alerts&gt;&lt;fullName&gt;Send_Email_Italian&lt;/fullName&gt;&lt;description&gt;Send Email | Italian&lt;/description&gt;</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;protected&gt;false&lt;/protected&gt;&lt;recipients&gt;&lt;field&gt;Email_Address__c&lt;/field&gt;&lt;type&gt;email&lt;/type&gt;&lt;/recipients&gt;</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;template&gt;Send_Email/Send_Email_Italian&lt;/template&gt;&lt;/alerts&gt;</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;rules&gt;&lt;fullName&gt;Send Email Italian&lt;/fullName&gt;&lt;actions&gt;&lt;name&gt;Send_Email_Italian&lt;/name&gt;</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;type&gt;Alert&lt;/type&gt;&lt;/actions&gt;&lt;active&gt;true&lt;/active&gt;&lt;criteriaItems&gt;&lt;field&gt;Email__c.Language_Code__c&lt;/field&gt;&lt;operation&gt;equals&lt;/operation&gt;</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;value&gt;it&lt;/value&gt;&lt;/criteriaItems&gt;&lt;triggerType&gt;onCreateOnly&lt;/triggerType&gt;&lt;/rules&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>510</v>
+      </c>
+      <c r="B9" t="s">
+        <v>510</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;alerts&gt;&lt;fullName&gt;Send_Email_Japanese&lt;/fullName&gt;&lt;description&gt;Send Email | Japanese&lt;/description&gt;</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;protected&gt;false&lt;/protected&gt;&lt;recipients&gt;&lt;field&gt;Email_Address__c&lt;/field&gt;&lt;type&gt;email&lt;/type&gt;&lt;/recipients&gt;</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;template&gt;Send_Email/Send_Email_Japanese&lt;/template&gt;&lt;/alerts&gt;</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;rules&gt;&lt;fullName&gt;Send Email Japanese&lt;/fullName&gt;&lt;actions&gt;&lt;name&gt;Send_Email_Japanese&lt;/name&gt;</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;type&gt;Alert&lt;/type&gt;&lt;/actions&gt;&lt;active&gt;true&lt;/active&gt;&lt;criteriaItems&gt;&lt;field&gt;Email__c.Language_Code__c&lt;/field&gt;&lt;operation&gt;equals&lt;/operation&gt;</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;value&gt;ja&lt;/value&gt;&lt;/criteriaItems&gt;&lt;triggerType&gt;onCreateOnly&lt;/triggerType&gt;&lt;/rules&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>512</v>
+      </c>
+      <c r="B10" t="s">
+        <v>512</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;alerts&gt;&lt;fullName&gt;Send_Email_Korean&lt;/fullName&gt;&lt;description&gt;Send Email | Korean&lt;/description&gt;</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;protected&gt;false&lt;/protected&gt;&lt;recipients&gt;&lt;field&gt;Email_Address__c&lt;/field&gt;&lt;type&gt;email&lt;/type&gt;&lt;/recipients&gt;</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;template&gt;Send_Email/Send_Email_Korean&lt;/template&gt;&lt;/alerts&gt;</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;rules&gt;&lt;fullName&gt;Send Email Korean&lt;/fullName&gt;&lt;actions&gt;&lt;name&gt;Send_Email_Korean&lt;/name&gt;</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;type&gt;Alert&lt;/type&gt;&lt;/actions&gt;&lt;active&gt;true&lt;/active&gt;&lt;criteriaItems&gt;&lt;field&gt;Email__c.Language_Code__c&lt;/field&gt;&lt;operation&gt;equals&lt;/operation&gt;</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;value&gt;ko&lt;/value&gt;&lt;/criteriaItems&gt;&lt;triggerType&gt;onCreateOnly&lt;/triggerType&gt;&lt;/rules&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>367</v>
+      </c>
+      <c r="B11" t="s">
+        <v>524</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;alerts&gt;&lt;fullName&gt;Send_Email_Portuguese_Brazilian&lt;/fullName&gt;&lt;description&gt;Send Email | Portuguese (Brazilian)&lt;/description&gt;</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;protected&gt;false&lt;/protected&gt;&lt;recipients&gt;&lt;field&gt;Email_Address__c&lt;/field&gt;&lt;type&gt;email&lt;/type&gt;&lt;/recipients&gt;</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;template&gt;Send_Email/Send_Email_Portuguese_Brazilian&lt;/template&gt;&lt;/alerts&gt;</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;rules&gt;&lt;fullName&gt;Send Email Portuguese (Brazilian)&lt;/fullName&gt;&lt;actions&gt;&lt;name&gt;Send_Email_Portuguese_Brazilian&lt;/name&gt;</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;type&gt;Alert&lt;/type&gt;&lt;/actions&gt;&lt;active&gt;true&lt;/active&gt;&lt;criteriaItems&gt;&lt;field&gt;Email__c.Language_Code__c&lt;/field&gt;&lt;operation&gt;equals&lt;/operation&gt;</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;value&gt;pt_BR&lt;/value&gt;&lt;/criteriaItems&gt;&lt;triggerType&gt;onCreateOnly&lt;/triggerType&gt;&lt;/rules&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;alerts&gt;&lt;fullName&gt;Send_Email_Russian&lt;/fullName&gt;&lt;description&gt;Send Email | Russian&lt;/description&gt;</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;protected&gt;false&lt;/protected&gt;&lt;recipients&gt;&lt;field&gt;Email_Address__c&lt;/field&gt;&lt;type&gt;email&lt;/type&gt;&lt;/recipients&gt;</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;template&gt;Send_Email/Send_Email_Russian&lt;/template&gt;&lt;/alerts&gt;</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;rules&gt;&lt;fullName&gt;Send Email Russian&lt;/fullName&gt;&lt;actions&gt;&lt;name&gt;Send_Email_Russian&lt;/name&gt;</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;type&gt;Alert&lt;/type&gt;&lt;/actions&gt;&lt;active&gt;true&lt;/active&gt;&lt;criteriaItems&gt;&lt;field&gt;Email__c.Language_Code__c&lt;/field&gt;&lt;operation&gt;equals&lt;/operation&gt;</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;value&gt;ru&lt;/value&gt;&lt;/criteriaItems&gt;&lt;triggerType&gt;onCreateOnly&lt;/triggerType&gt;&lt;/rules&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>507</v>
+      </c>
+      <c r="B13" t="s">
+        <v>507</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;alerts&gt;&lt;fullName&gt;Send_Email_Spanish&lt;/fullName&gt;&lt;description&gt;Send Email | Spanish&lt;/description&gt;</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;protected&gt;false&lt;/protected&gt;&lt;recipients&gt;&lt;field&gt;Email_Address__c&lt;/field&gt;&lt;type&gt;email&lt;/type&gt;&lt;/recipients&gt;</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;template&gt;Send_Email/Send_Email_Spanish&lt;/template&gt;&lt;/alerts&gt;</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;rules&gt;&lt;fullName&gt;Send Email Spanish&lt;/fullName&gt;&lt;actions&gt;&lt;name&gt;Send_Email_Spanish&lt;/name&gt;</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;type&gt;Alert&lt;/type&gt;&lt;/actions&gt;&lt;active&gt;true&lt;/active&gt;&lt;criteriaItems&gt;&lt;field&gt;Email__c.Language_Code__c&lt;/field&gt;&lt;operation&gt;equals&lt;/operation&gt;</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;value&gt;es&lt;/value&gt;&lt;/criteriaItems&gt;&lt;triggerType&gt;onCreateOnly&lt;/triggerType&gt;&lt;/rules&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>511</v>
+      </c>
+      <c r="B14" t="s">
+        <v>511</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;alerts&gt;&lt;fullName&gt;Send_Email_Swedish&lt;/fullName&gt;&lt;description&gt;Send Email | Swedish&lt;/description&gt;</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;protected&gt;false&lt;/protected&gt;&lt;recipients&gt;&lt;field&gt;Email_Address__c&lt;/field&gt;&lt;type&gt;email&lt;/type&gt;&lt;/recipients&gt;</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;template&gt;Send_Email/Send_Email_Swedish&lt;/template&gt;&lt;/alerts&gt;</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;rules&gt;&lt;fullName&gt;Send Email Swedish&lt;/fullName&gt;&lt;actions&gt;&lt;name&gt;Send_Email_Swedish&lt;/name&gt;</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;type&gt;Alert&lt;/type&gt;&lt;/actions&gt;&lt;active&gt;true&lt;/active&gt;&lt;criteriaItems&gt;&lt;field&gt;Email__c.Language_Code__c&lt;/field&gt;&lt;operation&gt;equals&lt;/operation&gt;</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;value&gt;sv&lt;/value&gt;&lt;/criteriaItems&gt;&lt;triggerType&gt;onCreateOnly&lt;/triggerType&gt;&lt;/rules&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;alerts&gt;&lt;fullName&gt;Send_Email_Thai&lt;/fullName&gt;&lt;description&gt;Send Email | Thai&lt;/description&gt;</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;protected&gt;false&lt;/protected&gt;&lt;recipients&gt;&lt;field&gt;Email_Address__c&lt;/field&gt;&lt;type&gt;email&lt;/type&gt;&lt;/recipients&gt;</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;template&gt;Send_Email/Send_Email_Thai&lt;/template&gt;&lt;/alerts&gt;</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;rules&gt;&lt;fullName&gt;Send Email Thai&lt;/fullName&gt;&lt;actions&gt;&lt;name&gt;Send_Email_Thai&lt;/name&gt;</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;type&gt;Alert&lt;/type&gt;&lt;/actions&gt;&lt;active&gt;true&lt;/active&gt;&lt;criteriaItems&gt;&lt;field&gt;Email__c.Language_Code__c&lt;/field&gt;&lt;operation&gt;equals&lt;/operation&gt;</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;value&gt;th&lt;/value&gt;&lt;/criteriaItems&gt;&lt;triggerType&gt;onCreateOnly&lt;/triggerType&gt;&lt;/rules&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>518</v>
+      </c>
+      <c r="B16" t="s">
+        <v>525</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;alerts&gt;&lt;fullName&gt;Send_Email_English_United_States&lt;/fullName&gt;&lt;description&gt;Send Email | English (United States)&lt;/description&gt;</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;protected&gt;false&lt;/protected&gt;&lt;recipients&gt;&lt;field&gt;Email_Address__c&lt;/field&gt;&lt;type&gt;email&lt;/type&gt;&lt;/recipients&gt;</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;template&gt;Send_Email/Send_Email_English_United_States&lt;/template&gt;&lt;/alerts&gt;</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;rules&gt;&lt;fullName&gt;Send Email English (United States)&lt;/fullName&gt;&lt;actions&gt;&lt;name&gt;Send_Email_English_United_States&lt;/name&gt;</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;type&gt;Alert&lt;/type&gt;&lt;/actions&gt;&lt;active&gt;true&lt;/active&gt;&lt;criteriaItems&gt;&lt;field&gt;Email__c.Language_Code__c&lt;/field&gt;&lt;operation&gt;equals&lt;/operation&gt;</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;value&gt;en_US&lt;/value&gt;&lt;/criteriaItems&gt;&lt;triggerType&gt;onCreateOnly&lt;/triggerType&gt;&lt;/rules&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="str">
+        <f>",'"&amp;A1&amp;"'"</f>
+        <v>,'cs'</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B23" si="0">",'"&amp;A2&amp;"'"</f>
+        <v>,'da'</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>,'de'</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>,'en_US'</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>,'es'</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>,'es_MX'</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>,'fi'</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>,'fr'</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>,'hu'</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>,'in'</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>,'it'</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>,'ja'</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>,'ko'</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>,'nl_NL'</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>,'pl'</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>,'pt_BR'</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>,'ro'</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>,'ru'</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>,'sv'</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>,'th'</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>,'tr'</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>,'zh_CN'</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>,'zh_TW'</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>